--- a/Labs/Lab19/Lab19.xlsx
+++ b/Labs/Lab19/Lab19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asp1r\snglrtycrvtureofspce\GitHub\software-testing\Labs\Lab19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A464AA2-9FBB-492F-8A45-D536FAD8B460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FC28D6-0746-46E8-B547-DEC5F1E9EF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="112">
   <si>
     <t>№</t>
   </si>
@@ -138,21 +138,264 @@
     <t>Результат</t>
   </si>
   <si>
+    <t>1.Заполнить требуемые поля валидными данными
+- "e-mail" - test123@gmail.com
+- "Пароль" - test321
+- "Повторите пароль" - test321
+2.нажать кнопку "Регистрация"</t>
+  </si>
+  <si>
+    <t>1.Заполнить требуемые поля валидными данными
+- "e-mail" - !@#$%^&amp;*()@gmail.com
+- "Пароль" - test321
+- "Повторите пароль" - test321
+2.нажать кнопку "Регистрация"</t>
+  </si>
+  <si>
+    <t>1. Поля заполнены;
+2. Отображение ошибки "Некорректный e-mail"</t>
+  </si>
+  <si>
+    <t>1. Поля заполнены;
+2. Новый пользователь сохраняется в базе данных "пользователей".
+3. Ожидалась ошибка "Некорректный пароль"</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
     <t>Краткое описание</t>
   </si>
   <si>
+    <t>Подробное описание</t>
+  </si>
+  <si>
+    <t>Шаги воспроизведения</t>
+  </si>
+  <si>
+    <t>Фактический результат</t>
+  </si>
+  <si>
+    <t>Воспроизводимость</t>
+  </si>
+  <si>
+    <t>Важность</t>
+  </si>
+  <si>
+    <t>Срочность</t>
+  </si>
+  <si>
+    <t>Назначен на</t>
+  </si>
+  <si>
+    <t>Симптом</t>
+  </si>
+  <si>
     <t>Открытие сайта Onliner.by</t>
   </si>
   <si>
+    <t xml:space="preserve">1. Нажать левой кнопкой мыши на ссылку "https://www.onliner.by"
+</t>
+  </si>
+  <si>
+    <t>После нажатия на ссылку "https://www.onliner.by" открывается сайт</t>
+  </si>
+  <si>
+    <t>После нажатия на ссылку "https://www.onliner.by" ничего не происходит</t>
+  </si>
+  <si>
+    <t>Редко</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Расхождение с требованиями</t>
+  </si>
+  <si>
     <t>Открытие окна регистрации</t>
   </si>
   <si>
+    <t>1. Поля заполнены;
+2. Новый пользователь сохраняется в базе данных сайта "https://www.onliner.by""пользователей".</t>
+  </si>
+  <si>
+    <t>После нажатия кнопки "Регистрация" пользователя перекидывает в меню без каких-либо изменений</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Иногда</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
     <t>CHECK LIST №1</t>
   </si>
   <si>
+    <t>Зеневич А.О.</t>
+  </si>
+  <si>
+    <t>1.Заполнить требуемые поля валидными данными
+- "e-mail" - test123@gmail.com
+- "Пароль" - Ttest321123!
+- "Повторите пароль" - test321123!
+2.нажать кнопку "Регистрация"</t>
+  </si>
+  <si>
+    <t>1.Заполнить требуемые поля валидными данными
+- "e-mail" - admin@gmail.com
+- "Пароль" - test321123!
+- "Повторите пароль" - test321123!
+2.нажать кнопку "Регистрация"</t>
+  </si>
+  <si>
+    <t>1.Заполнить требуемые поля валидными данными
+- "e-mail" - test123@gmail.com
+- "Пароль" - @#$%^&amp;*()
+- "Повторите пароль" - @#$%^&amp;*()
+2.нажать кнопку "Регистрация"</t>
+  </si>
+  <si>
+    <t>1.Заполнить требуемые поля валидными данными
+- "e-mail" - test123@gmail,com
+- "Пароль" - test321
+- "Повторите пароль" - @#$%^&amp;*()
+2.нажать кнопку "Регистрация"</t>
+  </si>
+  <si>
+    <r>
+      <t>После нажатия на ссылку "https://www.onliner.by" открывается сайт</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Требование:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Выполнить регистрацию в системе для пользователя </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Требование:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">После нажатия кнопки "Поддержка пользователей" открыватся окно с информацией по поводу поддержки </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Требование: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Открытие поля "Поддержка пользователей"
+2. Отображение необходимой инструкции по игре;</t>
+  </si>
+  <si>
+    <t>После нажатия  кнопки "Поддержка пользователей" отображается необходимая пользователю информация для успешной подержки в своих вопросах</t>
+  </si>
+  <si>
+    <t>После нажатия кнопки "Поддержка пользователей" окно не отображается</t>
+  </si>
+  <si>
+    <r>
+      <t>После нажатия кнопки "Соцсети" &gt; "Facebook" открывается новая вкладка с соцсетью Facebook группы "onlinerby"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Требование:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 4</t>
+    </r>
+  </si>
+  <si>
+    <t>После нажатия кнопки "Соцсети" &gt; "Facebook" отображается окно новая вкладка с соцсетью группы</t>
+  </si>
+  <si>
+    <t>1.  открытие окна "Соцсети" &gt; "Facebook";</t>
+  </si>
+  <si>
+    <t>После нажатия кнопки "Соцсети" &gt; "Facebook" открывается новая вкладка с нерабочей ссылкой</t>
+  </si>
+  <si>
     <t xml:space="preserve">Открытие окна "Поддержка пользователей" </t>
   </si>
   <si>
@@ -165,6 +408,12 @@
     <t>Открыть приложение "Steam"</t>
   </si>
   <si>
+    <t>1. Запуск приложения "Steam" не был произведен из-за неизвестной ошибки.</t>
+  </si>
+  <si>
+    <t>1. Приложение запущено;</t>
+  </si>
+  <si>
     <t>Октрытие вкладки с генератором временного двухэтапного аутентификатора "Steam Guard"</t>
   </si>
   <si>
@@ -172,6 +421,19 @@
   </si>
   <si>
     <t xml:space="preserve">Запуск  процесса </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Открыть приложение "Steam"
+</t>
+  </si>
+  <si>
+    <t>После нажатия  иконки "Steam" начинается процесс пользования</t>
+  </si>
+  <si>
+    <t>После нажатия иконки "Steam" ничего не происходит</t>
+  </si>
+  <si>
+    <t xml:space="preserve">После нажатия кнопки "Регистрация" приложение закрывается без каких-либо явных причин </t>
   </si>
   <si>
     <t>Процесс пользования</t>
@@ -184,11 +446,37 @@
     <t>Открыть вкладку профиль &gt; "Чат"</t>
   </si>
   <si>
+    <t>1. Открытие поля "Чат"
+2. Отображение всех доступных и открытх чатов</t>
+  </si>
+  <si>
+    <t>1. поле "Чат" отображается;
+2. Все необходимые и открытые чаты отображаются</t>
+  </si>
+  <si>
+    <t>1. Открытие вкладки "Steam Guard" &gt; "Показать код Steam Guard"
+2. Просмотр аутентификатора;
+3. Аутентификатор отображается</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Нажатие кнопки "Редактировать профиль" во вкладке "Профиль";
+2. Открытие вкладки "Редактировать профиль";
+3. Вкладка "Редактировать профиль" открыта;
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">1. Вкладка "Редактировать профиль" открыта и готова к изменениям;
 </t>
   </si>
   <si>
     <t>Установка нового аватара учетной записи "Steam" во вкладке "Профиль" &gt; "Редактировать профиль"</t>
+  </si>
+  <si>
+    <t>1. Нажатие кнопки "Редактировать профиль" в профиле "Steam";
+2. Открытие вкладки Редактировать профиль";
+2. Открытие подвкладки "Аватар";
+3. Выбор необходимой картинки (184x184px)
+3. Отображение сообщения об успешном изменении аватара учетной записи "Steam".</t>
   </si>
   <si>
     <t>1. Вкладка "Редактировать профиль"во вкладке "Профиль" отображается;
@@ -197,14 +485,162 @@
 4. Сообщение об изменении аватара учетной записи  отображается;</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">После нажатия на иконку "Steam" начинается игровой процесс </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Требование:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">После нажатия кнопки "Cправка" открыватся окно с информацией </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Требование:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Заполнить требуемые поля валидными данными 
+- "eMail" - test123@gmail.com
+- "Пароль" - test321
+- "Повторный Пароль" - test321
+2.нажать кнопку "Регистрация"</t>
+  </si>
+  <si>
+    <t>После нажатия  кнопки "Чат" отображается необходимая пользователю информация по использованию приложения"Steam"</t>
+  </si>
+  <si>
+    <t>1. Открытие поля "Чат" во вкладке "Профиль";
+2. Отображение необходимой инструкции по использования приложения "Steam";</t>
+  </si>
+  <si>
+    <t>После нажатия кнопки "Чат" окно не отображается</t>
+  </si>
+  <si>
     <t xml:space="preserve">Открытие окна "Чат" </t>
   </si>
   <si>
     <t>Открытие окна "Друзья"</t>
+  </si>
+  <si>
+    <r>
+      <t>После нажатия кнопки "Друзья" отображается окно cо списком добавленных пользователем друзьями</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Требование:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 4</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Открытие окна "Друзья" во вкладке "Профиль"
+</t>
+  </si>
+  <si>
+    <t>После нажатия кнопки "Друзья" отображается окно c добавленными пользователем друзьями</t>
+  </si>
+  <si>
+    <t>После нажатия кнопки  "Друзья" окно c добавленными пользователем друзьями отображается неверно</t>
   </si>
   <si>
     <t>Открытие окна "Библиотека";
 Запуск необходимой пользователю игры.</t>
+  </si>
+  <si>
+    <r>
+      <t>После нажатия кнопки "Библиотека" отображается окно библиотеки &gt; списка добваленных либо купленных пользователем игр;
+Запуск нужной пользователю игры</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Требование:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 5</t>
+    </r>
+  </si>
+  <si>
+    <t>После нажатия кнопки "Запуск" выбранная пользователем "Steam" игра успешно запускается</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Открытие окна "Библиотека";
+2. Выбор одной из добавленных либо купленных игр ;
+3. Нажатие кнопки "Запуск";
+</t>
+  </si>
+  <si>
+    <t>После нажатия кнопки "Запуск" выбранная пользователем игра не запускается из-за неизвестной ошибки</t>
   </si>
   <si>
     <t>TEST CASE №1</t>
@@ -231,101 +667,12 @@
       <t xml:space="preserve">Steam </t>
     </r>
   </si>
-  <si>
-    <t>Комментарий</t>
-  </si>
-  <si>
-    <t>1. Принимаем входящий звонок во время запуска приложения.
-2. Запуск приложения "Steam" не был произведен из-за неизвестной ошибки.</t>
-  </si>
-  <si>
-    <t>1. Приложение запущено и ожидает в режиме гибернации;</t>
-  </si>
-  <si>
-    <t>1. Выключение сети WI-FI
-2. Открытие вкладки "Steam Guard" &gt; "Показать код Steam Guard"
-3. Просмотр аутентификатора;
-4. Аутентификатор отображается</t>
-  </si>
-  <si>
-    <t>1. Блокировка книжной ориентации 
-2. Открытие поля "Чат"
-2. Отображение всех доступных и открытх чатов</t>
-  </si>
-  <si>
-    <t>1. Поле "Чат" отображается;
-2. Все необходимые и открытые чаты отображаются</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Нажатие кнопки "Редактировать профиль" во вкладке "Профиль";
-2. Сворачиваем приложение и возвращаемся обратно;
-3. Открытие вкладки "Редактировать профиль";
-4. Вкладка "Редактировать профиль" открыта;
-</t>
-  </si>
-  <si>
-    <t>1. Нажатие кнопки "Редактировать профиль" в профиле "Steam";
-2. Открытие вкладки Редактировать профиль";
-3. Открытие подвкладки "Аватар";
-4. Выбор необходимой картинки (184x184px);
-5. Включаем режим полёта и обратно переключаемся на WI-FI (или Передачу Данных);
-6. Отображение сообщения об успешном изменении аватара учетной записи "Steam".</t>
-  </si>
-  <si>
-    <t>1.Заполнить требуемые поля валидными данными:
-- "e-mail" - !@#$%^&amp;*()@gmail.com
-- "Пароль" - test321
-- "Повторите пароль" - test321
-2. Отключаем WIFI (и Передачу Данных);
-3. Нажать кнопку "Регистрация"</t>
-  </si>
-  <si>
-    <t>1. Поля заполнены;
-2. Отображение ошибки "Некорректный e-mail" и дальнейшее обновление страницы</t>
-  </si>
-  <si>
-    <t>1.Заполнить требуемые поля валидными данными:
-- "e-mail" - test123@gmail.com
-- "Пароль" - test321
-- "Повторите пароль" - test321
-2. Включаем книжную ориентацию;
-3. Получаем смс на телефоне с кодом подтверждения и сворачиваем приложение;
-3. Разворачиваем обратно и нажимаем на  кнопку "Регистрация"</t>
-  </si>
-  <si>
-    <t>1. Заполнить требуемые поля валидными данными:
-- "e-mail" - test123@gmail.com
-- "Пароль" - Ttest321123!
-- "Повторите пароль" - test321123!
-2. Нажать кнопку "Регистрация"</t>
-  </si>
-  <si>
-    <t>1.Заполнить требуемые поля валидными данными:
-- "e-mail" - admin@gmail.com
-- "Пароль" - test321123!
-- "Повторите пароль" - test321123!
-2. Принимаем входящий звонок в приложении "Discord";
-3. Возвращаемся обратно и нажимаем на кнопку "Регистрация"</t>
-  </si>
-  <si>
-    <t>1.Заполнить требуемые поля валидными данными:
-- "e-mail" - test123@gmail.com
-- "Пароль" - @#$%^&amp;*()
-- "Повторите пароль" - @#$%^&amp;*()
-2. Выключаем сеть WIFI (или Передачу Данных);
-3. Нажать кнопку "Регистрация"</t>
-  </si>
-  <si>
-    <t>1. Поля заполнены;
-2. Новый пользователь сохраняется в базе данных "пользователей".
-3. Ожидалась ошибка "Некорректный пароль" и (или перезагрузка страницы с последующей ошибкой сети)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,6 +813,28 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -577,7 +946,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -598,6 +967,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -614,9 +989,24 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -632,6 +1022,9 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -649,34 +1042,19 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -962,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="E41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,11 +1368,11 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1006,11 +1384,11 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1020,11 +1398,11 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -1036,11 +1414,11 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -1050,27 +1428,27 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
     </row>
     <row r="6" spans="1:12" ht="61.5" x14ac:dyDescent="0.9">
       <c r="A6" s="7"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+      <c r="C6" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
@@ -1080,209 +1458,209 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="14" t="s">
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+    </row>
+    <row r="10" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-    </row>
-    <row r="11" spans="1:12" ht="180" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+    </row>
+    <row r="11" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
         <v>1</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="17" t="s">
+      <c r="E11" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-    </row>
-    <row r="12" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+    </row>
+    <row r="12" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
         <v>2</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="19" t="s">
+      <c r="E12" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-    </row>
-    <row r="13" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+    </row>
+    <row r="13" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
         <v>3</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="17" t="s">
+      <c r="E13" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
     </row>
     <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="22">
         <v>4</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="17" t="s">
+      <c r="E14" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-    </row>
-    <row r="15" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+    </row>
+    <row r="15" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
         <v>5</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="19" t="s">
+      <c r="E15" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
@@ -1296,23 +1674,23 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="26"/>
+      <c r="L16" s="37"/>
     </row>
     <row r="17" spans="1:12" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A17" s="7"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
+      <c r="C17" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="26"/>
+      <c r="L17" s="37"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -1326,101 +1704,187 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="26"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="23" t="s">
+      <c r="L18" s="37"/>
+    </row>
+    <row r="19" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="37"/>
+    </row>
+    <row r="20" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+      <c r="A20" s="32">
+        <v>1</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="37"/>
+    </row>
+    <row r="21" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="32">
+        <v>2</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-    </row>
-    <row r="20" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
-        <v>1</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-    </row>
-    <row r="21" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
-        <v>2</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-    </row>
-    <row r="22" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+      <c r="I21" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="37"/>
+    </row>
+    <row r="22" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+      <c r="A22" s="32">
         <v>3</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-    </row>
-    <row r="23" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+      <c r="B22" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="37"/>
+    </row>
+    <row r="23" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+      <c r="A23" s="32">
         <v>4</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
+      <c r="B23" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" s="37"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
@@ -1434,7 +1898,7 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="26"/>
+      <c r="L24" s="37"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -1448,13 +1912,13 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="26"/>
+      <c r="L25" s="37"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1464,7 +1928,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="26"/>
+      <c r="L26" s="37"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
@@ -1478,23 +1942,23 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="26"/>
+      <c r="L27" s="37"/>
     </row>
     <row r="28" spans="1:12" ht="61.5" x14ac:dyDescent="0.9">
       <c r="A28" s="7"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
+      <c r="C28" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="26"/>
+      <c r="L28" s="37"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
@@ -1508,205 +1972,205 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="26"/>
+      <c r="L29" s="37"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="15" t="s">
         <v>22</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="26"/>
+      <c r="L30" s="37"/>
     </row>
     <row r="31" spans="1:12" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="20"/>
+      <c r="G31" s="21"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="26"/>
-    </row>
-    <row r="32" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="L31" s="37"/>
+    </row>
+    <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
         <v>1</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G32" s="19" t="s">
+      <c r="C32" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="26" t="s">
         <v>13</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="26"/>
+      <c r="L32" s="37"/>
     </row>
     <row r="33" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
+      <c r="A33" s="22">
         <v>2</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="18" t="s">
+      <c r="C33" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="25" t="s">
         <v>11</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="26"/>
+      <c r="L33" s="37"/>
     </row>
     <row r="34" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
+      <c r="A34" s="22">
         <v>3</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" s="18" t="s">
+      <c r="C34" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="25" t="s">
         <v>11</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="26"/>
-    </row>
-    <row r="35" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A35" s="15">
+      <c r="L34" s="37"/>
+    </row>
+    <row r="35" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
         <v>4</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="18" t="s">
+      <c r="C35" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="25" t="s">
         <v>11</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="26"/>
-    </row>
-    <row r="36" spans="1:12" ht="195" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
+      <c r="L35" s="37"/>
+    </row>
+    <row r="36" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
         <v>5</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="18" t="s">
+      <c r="C36" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" s="25" t="s">
         <v>11</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="26"/>
+      <c r="L36" s="37"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="10"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="26"/>
+      <c r="L37" s="37"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
@@ -1720,23 +2184,23 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="26"/>
+      <c r="L38" s="37"/>
     </row>
     <row r="39" spans="1:12" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A39" s="7"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
+      <c r="C39" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="26"/>
+      <c r="L39" s="37"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
@@ -1750,119 +2214,223 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="26"/>
+      <c r="L40" s="37"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="24">
+      <c r="A41" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I41" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J41" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="K41" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="37"/>
+    </row>
+    <row r="42" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="32">
         <v>1</v>
       </c>
-      <c r="B42" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-    </row>
-    <row r="43" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="24">
+      <c r="B42" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="J42" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L42" s="37"/>
+    </row>
+    <row r="43" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="32">
         <v>2</v>
       </c>
-      <c r="B43" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-    </row>
-    <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="24">
+      <c r="B43" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="J43" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K43" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L43" s="37"/>
+    </row>
+    <row r="44" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="32">
         <v>3</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G44" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-    </row>
-    <row r="45" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="24">
+      <c r="H44" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="I44" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="J44" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K44" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L44" s="37"/>
+    </row>
+    <row r="45" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="32">
         <v>4</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="G45" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="I45" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="J45" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K45" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L45" s="37"/>
+    </row>
+    <row r="46" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A46" s="32">
+        <v>5</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-    </row>
-    <row r="46" spans="1:12" ht="63" x14ac:dyDescent="0.25">
-      <c r="A46" s="24">
-        <v>5</v>
-      </c>
-      <c r="B46" s="25" t="s">
+      <c r="I46" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
+      <c r="J46" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K46" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L46" s="37"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
@@ -1876,7 +2444,7 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="26"/>
+      <c r="L47" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Labs/Lab19/Lab19.xlsx
+++ b/Labs/Lab19/Lab19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asp1r\snglrtycrvtureofspce\GitHub\software-testing\Labs\Lab19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FC28D6-0746-46E8-B547-DEC5F1E9EF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2924864E-784A-4CBA-AE0C-760AD11096ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="111">
   <si>
     <t>№</t>
   </si>
@@ -154,11 +154,6 @@
   <si>
     <t>1. Поля заполнены;
 2. Отображение ошибки "Некорректный e-mail"</t>
-  </si>
-  <si>
-    <t>1. Поля заполнены;
-2. Новый пользователь сохраняется в базе данных "пользователей".
-3. Ожидалась ошибка "Некорректный пароль"</t>
   </si>
   <si>
     <t>ID</t>
@@ -459,12 +454,6 @@
 3. Аутентификатор отображается</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Нажатие кнопки "Редактировать профиль" во вкладке "Профиль";
-2. Открытие вкладки "Редактировать профиль";
-3. Вкладка "Редактировать профиль" открыта;
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Вкладка "Редактировать профиль" открыта и готова к изменениям;
 </t>
   </si>
@@ -666,6 +655,9 @@
       </rPr>
       <t xml:space="preserve">Steam </t>
     </r>
+  </si>
+  <si>
+    <t>1. Нажатие кнопки "Редактировать профиль" во вкладке "Профиль";</t>
   </si>
 </sst>
 </file>
@@ -967,12 +959,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -989,24 +975,9 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1021,9 +992,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1055,6 +1023,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1340,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:G28"/>
+    <sheetView tabSelected="1" topLeftCell="C40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,11 +1360,11 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1384,11 +1376,11 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1398,11 +1390,11 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -1414,11 +1406,11 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -1428,27 +1420,27 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="6" spans="1:12" ht="61.5" x14ac:dyDescent="0.9">
       <c r="A6" s="7"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
+      <c r="C6" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
@@ -1458,209 +1450,209 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-    </row>
-    <row r="10" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19" t="s">
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="15">
         <v>1</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
     </row>
     <row r="12" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+      <c r="A12" s="15">
         <v>2</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
     </row>
     <row r="13" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
+      <c r="A13" s="15">
         <v>3</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+    </row>
+    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>4</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+    </row>
+    <row r="15" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>5</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="25" t="s">
+      <c r="F15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-    </row>
-    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
-        <v>4</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-    </row>
-    <row r="15" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
-        <v>5</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
@@ -1674,23 +1666,23 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="37"/>
+      <c r="L16" s="29"/>
     </row>
     <row r="17" spans="1:12" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A17" s="7"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="C17" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="37"/>
+      <c r="L17" s="29"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -1704,187 +1696,187 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="37"/>
-    </row>
-    <row r="19" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="L18" s="29"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="C19" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="D19" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="E19" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="30" t="s">
+      <c r="G19" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="H19" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="I19" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="30" t="s">
+      <c r="J19" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="31" t="s">
+      <c r="K19" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="31" t="s">
+      <c r="L19" s="29"/>
+    </row>
+    <row r="20" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
+        <v>1</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="37"/>
-    </row>
-    <row r="20" spans="1:12" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" s="32">
-        <v>1</v>
-      </c>
-      <c r="B20" s="33" t="s">
+      <c r="C20" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="E20" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="29"/>
+    </row>
+    <row r="21" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <v>2</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="33" t="s">
+      <c r="D21" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="35" t="s">
+      <c r="H21" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="35" t="s">
+      <c r="J21" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="J20" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" s="37"/>
-    </row>
-    <row r="21" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="32">
-        <v>2</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="34" t="s">
+      <c r="L21" s="29"/>
+    </row>
+    <row r="22" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
+        <v>3</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="33" t="s">
+      <c r="D22" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="35" t="s">
+      <c r="I22" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" s="29"/>
+    </row>
+    <row r="23" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>4</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="35" t="s">
+      <c r="H23" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="J21" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="K21" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" s="37"/>
-    </row>
-    <row r="22" spans="1:12" ht="63" x14ac:dyDescent="0.25">
-      <c r="A22" s="32">
-        <v>3</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="J22" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="K22" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="L22" s="37"/>
-    </row>
-    <row r="23" spans="1:12" ht="63" x14ac:dyDescent="0.25">
-      <c r="A23" s="32">
-        <v>4</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="J23" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="K23" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" s="37"/>
+      <c r="L23" s="29"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
@@ -1898,7 +1890,7 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="37"/>
+      <c r="L24" s="29"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -1912,13 +1904,13 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="37"/>
+      <c r="L25" s="29"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1928,7 +1920,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="37"/>
+      <c r="L26" s="29"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
@@ -1942,23 +1934,23 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="37"/>
+      <c r="L27" s="29"/>
     </row>
     <row r="28" spans="1:12" ht="61.5" x14ac:dyDescent="0.9">
       <c r="A28" s="7"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="C28" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="37"/>
+      <c r="L28" s="29"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
@@ -1972,205 +1964,205 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="37"/>
+      <c r="L29" s="29"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="37"/>
+      <c r="L30" s="29"/>
     </row>
     <row r="31" spans="1:12" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="34"/>
+      <c r="G31" s="35"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="37"/>
+      <c r="L31" s="29"/>
     </row>
     <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
+      <c r="A32" s="15">
         <v>1</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="24" t="s">
+      <c r="C32" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="F32" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="37"/>
+      <c r="L32" s="29"/>
     </row>
     <row r="33" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="22">
+      <c r="A33" s="15">
         <v>2</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="18" t="s">
         <v>11</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="37"/>
+      <c r="L33" s="29"/>
     </row>
     <row r="34" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="22">
+      <c r="A34" s="15">
         <v>3</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="24" t="s">
+      <c r="C34" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="F34" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="18" t="s">
         <v>11</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="37"/>
-    </row>
-    <row r="35" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A35" s="22">
+      <c r="L34" s="29"/>
+    </row>
+    <row r="35" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
         <v>4</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="25" t="s">
+      <c r="C35" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="18" t="s">
         <v>11</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="37"/>
+      <c r="L35" s="29"/>
     </row>
     <row r="36" spans="1:12" ht="180" x14ac:dyDescent="0.25">
-      <c r="A36" s="22">
+      <c r="A36" s="15">
         <v>5</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="24" t="s">
+      <c r="C36" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="G36" s="25" t="s">
+      <c r="G36" s="18" t="s">
         <v>11</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="37"/>
+      <c r="L36" s="29"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="37"/>
+      <c r="L37" s="29"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
@@ -2184,23 +2176,23 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="37"/>
+      <c r="L38" s="29"/>
     </row>
     <row r="39" spans="1:12" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A39" s="7"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+      <c r="C39" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="37"/>
+      <c r="L39" s="29"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
@@ -2214,223 +2206,223 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="37"/>
+      <c r="L40" s="29"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="C41" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="D41" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="E41" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="30" t="s">
+      <c r="G41" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="K41" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="L41" s="29"/>
+    </row>
+    <row r="42" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="24">
+        <v>1</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J42" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="K42" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="L42" s="29"/>
+    </row>
+    <row r="43" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="24">
+        <v>2</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J43" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="K43" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="L43" s="29"/>
+    </row>
+    <row r="44" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="24">
+        <v>3</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J44" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="K44" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="L44" s="29"/>
+    </row>
+    <row r="45" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="24">
+        <v>4</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I45" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J45" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="K45" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="L45" s="29"/>
+    </row>
+    <row r="46" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A46" s="24">
         <v>5</v>
       </c>
-      <c r="F41" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="I41" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="J41" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="K41" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="L41" s="37"/>
-    </row>
-    <row r="42" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="32">
-        <v>1</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E42" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F42" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="G42" s="35" t="s">
+      <c r="B46" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="35" t="s">
+      <c r="I46" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I42" s="35" t="s">
+      <c r="J46" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="K46" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="J42" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="K42" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="L42" s="37"/>
-    </row>
-    <row r="43" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="32">
-        <v>2</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="G43" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="H43" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="I43" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="J43" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="K43" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="L43" s="37"/>
-    </row>
-    <row r="44" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="32">
-        <v>3</v>
-      </c>
-      <c r="B44" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="F44" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="G44" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="H44" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="I44" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="J44" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="K44" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="L44" s="37"/>
-    </row>
-    <row r="45" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="32">
-        <v>4</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="E45" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="F45" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="G45" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="H45" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="I45" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="J45" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="K45" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="L45" s="37"/>
-    </row>
-    <row r="46" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46" s="32">
-        <v>5</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="E46" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="F46" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="G46" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="H46" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="I46" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="J46" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="K46" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="L46" s="37"/>
+      <c r="L46" s="29"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
@@ -2444,7 +2436,7 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="37"/>
+      <c r="L47" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="8">
